--- a/Data_classifier/Menu_charac/data/menu_key.xlsx
+++ b/Data_classifier/Menu_charac/data/menu_key.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
   <si>
     <t>name</t>
   </si>
@@ -905,6 +905,30 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염소탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1265,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="N276" sqref="N276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,9 +1356,6 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1467,7 +1488,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1478,17 +1499,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1532,1299 +1553,2492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>296</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>297</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>289</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>299</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_classifier/Menu_charac/data/menu_key.xlsx
+++ b/Data_classifier/Menu_charac/data/menu_key.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="366">
   <si>
     <t>name</t>
   </si>
@@ -912,23 +912,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>염소탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단맛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해신탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽈찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항정살묵은지찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현미베이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜면밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙곱새</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르보나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핫도그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내장탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가브리살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감바스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사케동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소떡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육개장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버팔로칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나시고랭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제계치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토시살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우렁쌈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡복이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌링클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설렁탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우럭탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청국장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커틀렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈낙탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감튀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주꾸미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이센동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유린기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위스키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오믈렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이베리코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바사삭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="N276" sqref="N276"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,9 +1639,6 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>291</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1863,7 +2124,7 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2045,8 +2306,8 @@
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="D73" t="s">
-        <v>294</v>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2058,8 +2319,8 @@
       <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="D75" t="s">
-        <v>294</v>
+      <c r="D75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2462,9 +2723,6 @@
       <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="D118" t="s">
-        <v>296</v>
-      </c>
       <c r="E118">
         <v>1</v>
       </c>
@@ -2952,9 +3210,6 @@
       <c r="A165" t="s">
         <v>172</v>
       </c>
-      <c r="B165" t="s">
-        <v>297</v>
-      </c>
       <c r="E165">
         <v>1</v>
       </c>
@@ -3107,9 +3362,6 @@
       <c r="A181" t="s">
         <v>188</v>
       </c>
-      <c r="B181" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
@@ -4029,15 +4281,698 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
+        <v>295</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>296</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>297</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>298</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>299</v>
       </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="E283">
-        <v>1</v>
-      </c>
-      <c r="F283">
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>300</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>363</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>302</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>303</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>304</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>305</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>306</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>307</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>308</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>309</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>310</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>311</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>312</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>313</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>314</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>315</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>316</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>317</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>354</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>319</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>320</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>321</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>322</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>325</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>326</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>327</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>328</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>329</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>330</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>331</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>332</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>333</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>334</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>335</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>336</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>337</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>338</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>339</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>340</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>342</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>344</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>345</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>346</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>347</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>348</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>349</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>350</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>353</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>356</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>357</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>361</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>364</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>365</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
         <v>1</v>
       </c>
     </row>
